--- a/spreadsheets/MNPS Enrollment 20-21.xlsx
+++ b/spreadsheets/MNPS Enrollment 20-21.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA12\capstone\capstone-da12\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E64D43D5-3153-47F8-9A13-265B64E20BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9189040A-C38E-4F6D-9951-5FB690CD4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{75978B0F-C899-4B52-8D18-8F2EE3CB790F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{75978B0F-C899-4B52-8D18-8F2EE3CB790F}"/>
   </bookViews>
   <sheets>
     <sheet name="MNPS Enrollment Data" sheetId="1" r:id="rId1"/>
     <sheet name="Stats 20-21" sheetId="2" r:id="rId2"/>
     <sheet name="Enrollment Numbers" sheetId="3" r:id="rId3"/>
-    <sheet name="ZipCode Line Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="Zip Code Max Enrollments" sheetId="4" r:id="rId4"/>
+    <sheet name="Zip Code Min Enrollments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="822">
   <si>
     <t>School Year</t>
   </si>
@@ -2688,20 +2689,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2737,13 +2738,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2846,7 +2853,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[MNPS Enrollment 20-21.xlsx]ZipCode Line Chart!PivotTable2</c:name>
+    <c:name>[MNPS Enrollment 20-21.xlsx]Zip Code Max Enrollments!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2949,7 +2956,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ZipCode Line Chart'!$B$1:$B$2</c:f>
+              <c:f>'Zip Code Max Enrollments'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2972,93 +2979,93 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'ZipCode Line Chart'!$A$3:$A$29</c:f>
+              <c:f>'Zip Code Max Enrollments'!$A$3:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>37013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37027</c:v>
+                  <c:v>37211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37072</c:v>
+                  <c:v>37207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37076</c:v>
+                  <c:v>37214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37080</c:v>
+                  <c:v>37206</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>37216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37209</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>37115</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>37138</c:v>
+                <c:pt idx="10">
+                  <c:v>37217</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37189</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37204</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>37205</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37206</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>37207</c:v>
+                  <c:v>37220</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>37208</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37209</c:v>
+                  <c:v>37076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37210</c:v>
+                  <c:v>37215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37211</c:v>
+                  <c:v>37204</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>37138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>37212</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>37214</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37215</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37216</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>37217</c:v>
+                  <c:v>37189</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>37218</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37220</c:v>
+                  <c:v>37027</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37221</c:v>
+                  <c:v>37228</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37228</c:v>
+                  <c:v>37080</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ZipCode Line Chart'!$B$3:$B$29</c:f>
+              <c:f>'Zip Code Max Enrollments'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3066,79 +3073,79 @@
                   <c:v>14485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>659</c:v>
+                  <c:v>10489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1230</c:v>
+                  <c:v>6554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2091</c:v>
+                  <c:v>4820</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>194</c:v>
+                  <c:v>4336</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2941</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1287</c:v>
+                <c:pt idx="10">
+                  <c:v>2719</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>832</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2529</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4336</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6554</c:v>
+                  <c:v>2442</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3400</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3480</c:v>
+                  <c:v>1956</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10489</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1038</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>4820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4081</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>2719</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2442</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1209</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>388</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3368,6 +3375,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[MNPS Enrollment 20-21.xlsx]Zip Code Min Enrollments!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zip Code Min Enrollments'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zip Code Min Enrollments'!$A$3:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>37080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37216</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37206</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37207</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zip Code Min Enrollments'!$B$3:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4820</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10489</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A0F-4909-A630-AA964EFD3635}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2015844607"/>
+        <c:axId val="2015842687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2015844607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015842687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2015842687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015844607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3408,7 +3951,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3965,6 +5064,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230E8AC4-2709-ABA1-8DB0-399F1B06FBCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="erica" refreshedDate="45568.834432291667" createdVersion="1" refreshedVersion="8" recordCount="162" upgradeOnRefresh="1" xr:uid="{00B65047-58A0-44E2-B72E-9DEC54605AA1}">
   <cacheSource type="worksheet">
@@ -10112,7 +11252,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D042F0FD-A11B-498B-82E7-2EB01C7AE0D0}" name="PivotTable1" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D042F0FD-A11B-498B-82E7-2EB01C7AE0D0}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A1:D328" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -11515,7 +12655,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD32547D-176A-4A76-8F5C-4FD2CD10A89E}" name="PivotTable2" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD32547D-176A-4A76-8F5C-4FD2CD10A89E}" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A1:B29" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -11523,7 +12663,7 @@
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="descending">
       <items count="27">
         <item x="0"/>
         <item x="19"/>
@@ -11553,6 +12693,15 @@
         <item x="25"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -11591,79 +12740,269 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i>
       <x v="4"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Enrollment" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83CB0426-6A3E-4A8D-9764-2F91F0839E56}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+  <location ref="A1:B29" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="34">
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
+      <items count="27">
+        <item x="0"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
+      <x v="18"/>
+    </i>
+    <i>
       <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -25905,7 +27244,6 @@
     </row>
     <row r="8" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25956,7 +27294,7 @@
       <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>745</v>
       </c>
     </row>
@@ -25966,7 +27304,7 @@
         <v>658</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>745</v>
       </c>
     </row>
@@ -25978,7 +27316,7 @@
       <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>313</v>
       </c>
     </row>
@@ -25988,7 +27326,7 @@
         <v>659</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>313</v>
       </c>
     </row>
@@ -26000,7 +27338,7 @@
       <c r="C7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>445</v>
       </c>
     </row>
@@ -26010,7 +27348,7 @@
         <v>660</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>445</v>
       </c>
     </row>
@@ -26022,7 +27360,7 @@
       <c r="C9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>409</v>
       </c>
     </row>
@@ -26032,7 +27370,7 @@
         <v>661</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>409</v>
       </c>
     </row>
@@ -26044,7 +27382,7 @@
       <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>1894</v>
       </c>
     </row>
@@ -26054,7 +27392,7 @@
         <v>662</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>1894</v>
       </c>
     </row>
@@ -26066,7 +27404,7 @@
       <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>684</v>
       </c>
     </row>
@@ -26076,7 +27414,7 @@
         <v>663</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>684</v>
       </c>
     </row>
@@ -26088,7 +27426,7 @@
       <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>790</v>
       </c>
     </row>
@@ -26098,7 +27436,7 @@
         <v>664</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>790</v>
       </c>
     </row>
@@ -26110,7 +27448,7 @@
       <c r="C17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>592</v>
       </c>
     </row>
@@ -26120,7 +27458,7 @@
         <v>665</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>592</v>
       </c>
     </row>
@@ -26132,7 +27470,7 @@
       <c r="C19" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>310</v>
       </c>
     </row>
@@ -26142,7 +27480,7 @@
         <v>666</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>310</v>
       </c>
     </row>
@@ -26154,7 +27492,7 @@
       <c r="C21" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>325</v>
       </c>
     </row>
@@ -26164,7 +27502,7 @@
         <v>667</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>325</v>
       </c>
     </row>
@@ -26176,7 +27514,7 @@
       <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>100</v>
       </c>
     </row>
@@ -26186,7 +27524,7 @@
         <v>668</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>100</v>
       </c>
     </row>
@@ -26198,7 +27536,7 @@
       <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>630</v>
       </c>
     </row>
@@ -26208,7 +27546,7 @@
         <v>669</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>630</v>
       </c>
     </row>
@@ -26220,7 +27558,7 @@
       <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>1806</v>
       </c>
     </row>
@@ -26230,7 +27568,7 @@
         <v>670</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>1806</v>
       </c>
     </row>
@@ -26242,7 +27580,7 @@
       <c r="C29" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>202</v>
       </c>
     </row>
@@ -26252,7 +27590,7 @@
         <v>671</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>202</v>
       </c>
     </row>
@@ -26264,7 +27602,7 @@
       <c r="C31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>49</v>
       </c>
     </row>
@@ -26274,7 +27612,7 @@
         <v>672</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>49</v>
       </c>
     </row>
@@ -26286,7 +27624,7 @@
       <c r="C33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>289</v>
       </c>
     </row>
@@ -26296,7 +27634,7 @@
         <v>673</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>289</v>
       </c>
     </row>
@@ -26308,7 +27646,7 @@
       <c r="C35" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>470</v>
       </c>
     </row>
@@ -26318,7 +27656,7 @@
         <v>674</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>470</v>
       </c>
     </row>
@@ -26330,7 +27668,7 @@
       <c r="C37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>248</v>
       </c>
     </row>
@@ -26340,7 +27678,7 @@
         <v>675</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <v>248</v>
       </c>
     </row>
@@ -26352,7 +27690,7 @@
       <c r="C39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <v>827</v>
       </c>
     </row>
@@ -26362,7 +27700,7 @@
         <v>676</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>827</v>
       </c>
     </row>
@@ -26374,7 +27712,7 @@
       <c r="C41" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>73</v>
       </c>
     </row>
@@ -26384,7 +27722,7 @@
         <v>677</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>73</v>
       </c>
     </row>
@@ -26396,7 +27734,7 @@
       <c r="C43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <v>305</v>
       </c>
     </row>
@@ -26406,7 +27744,7 @@
         <v>678</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <v>305</v>
       </c>
     </row>
@@ -26418,7 +27756,7 @@
       <c r="C45" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <v>415</v>
       </c>
     </row>
@@ -26428,7 +27766,7 @@
         <v>679</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <v>415</v>
       </c>
     </row>
@@ -26440,7 +27778,7 @@
       <c r="C47" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="15">
         <v>739</v>
       </c>
     </row>
@@ -26450,7 +27788,7 @@
         <v>680</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="16">
+      <c r="D48" s="15">
         <v>739</v>
       </c>
     </row>
@@ -26462,7 +27800,7 @@
       <c r="C49" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="15">
         <v>390</v>
       </c>
     </row>
@@ -26472,7 +27810,7 @@
         <v>681</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="16">
+      <c r="D50" s="15">
         <v>390</v>
       </c>
     </row>
@@ -26484,7 +27822,7 @@
       <c r="C51" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <v>544</v>
       </c>
     </row>
@@ -26494,7 +27832,7 @@
         <v>682</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="16">
+      <c r="D52" s="15">
         <v>544</v>
       </c>
     </row>
@@ -26506,7 +27844,7 @@
       <c r="C53" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="15">
         <v>387</v>
       </c>
     </row>
@@ -26516,7 +27854,7 @@
         <v>683</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="16">
+      <c r="D54" s="15">
         <v>387</v>
       </c>
     </row>
@@ -26528,7 +27866,7 @@
       <c r="C55" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="15">
         <v>727</v>
       </c>
     </row>
@@ -26538,7 +27876,7 @@
         <v>684</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="16">
+      <c r="D56" s="15">
         <v>727</v>
       </c>
     </row>
@@ -26550,7 +27888,7 @@
       <c r="C57" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="15">
         <v>314</v>
       </c>
     </row>
@@ -26560,7 +27898,7 @@
         <v>685</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="16">
+      <c r="D58" s="15">
         <v>314</v>
       </c>
     </row>
@@ -26572,7 +27910,7 @@
       <c r="C59" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="15">
         <v>564</v>
       </c>
     </row>
@@ -26582,7 +27920,7 @@
         <v>686</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <v>564</v>
       </c>
     </row>
@@ -26594,7 +27932,7 @@
       <c r="C61" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="15">
         <v>517</v>
       </c>
     </row>
@@ -26604,7 +27942,7 @@
         <v>687</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="16">
+      <c r="D62" s="15">
         <v>517</v>
       </c>
     </row>
@@ -26616,7 +27954,7 @@
       <c r="C63" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="15">
         <v>645</v>
       </c>
     </row>
@@ -26626,7 +27964,7 @@
         <v>688</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="16">
+      <c r="D64" s="15">
         <v>645</v>
       </c>
     </row>
@@ -26638,7 +27976,7 @@
       <c r="C65" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="15">
         <v>456</v>
       </c>
     </row>
@@ -26648,7 +27986,7 @@
         <v>689</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66" s="16">
+      <c r="D66" s="15">
         <v>456</v>
       </c>
     </row>
@@ -26660,7 +27998,7 @@
       <c r="C67" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="15">
         <v>856</v>
       </c>
     </row>
@@ -26670,7 +28008,7 @@
         <v>690</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="16">
+      <c r="D68" s="15">
         <v>856</v>
       </c>
     </row>
@@ -26682,7 +28020,7 @@
       <c r="C69" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="15">
         <v>335</v>
       </c>
     </row>
@@ -26692,7 +28030,7 @@
         <v>691</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="16">
+      <c r="D70" s="15">
         <v>335</v>
       </c>
     </row>
@@ -26704,7 +28042,7 @@
       <c r="C71" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="15">
         <v>632</v>
       </c>
     </row>
@@ -26714,7 +28052,7 @@
         <v>692</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="16">
+      <c r="D72" s="15">
         <v>632</v>
       </c>
     </row>
@@ -26726,7 +28064,7 @@
       <c r="C73" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="15">
         <v>487</v>
       </c>
     </row>
@@ -26736,7 +28074,7 @@
         <v>693</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="16">
+      <c r="D74" s="15">
         <v>487</v>
       </c>
     </row>
@@ -26748,7 +28086,7 @@
       <c r="C75" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="15">
         <v>307</v>
       </c>
     </row>
@@ -26758,7 +28096,7 @@
         <v>694</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="16">
+      <c r="D76" s="15">
         <v>307</v>
       </c>
     </row>
@@ -26770,7 +28108,7 @@
       <c r="C77" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="15">
         <v>197</v>
       </c>
     </row>
@@ -26780,7 +28118,7 @@
         <v>695</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="16">
+      <c r="D78" s="15">
         <v>197</v>
       </c>
     </row>
@@ -26792,7 +28130,7 @@
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="15">
         <v>546</v>
       </c>
     </row>
@@ -26802,7 +28140,7 @@
         <v>696</v>
       </c>
       <c r="C80" s="9"/>
-      <c r="D80" s="16">
+      <c r="D80" s="15">
         <v>546</v>
       </c>
     </row>
@@ -26814,7 +28152,7 @@
       <c r="C81" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="15">
         <v>1057</v>
       </c>
     </row>
@@ -26824,7 +28162,7 @@
         <v>697</v>
       </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="16">
+      <c r="D82" s="15">
         <v>1057</v>
       </c>
     </row>
@@ -26836,7 +28174,7 @@
       <c r="C83" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="15">
         <v>413</v>
       </c>
     </row>
@@ -26846,7 +28184,7 @@
         <v>698</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="16">
+      <c r="D84" s="15">
         <v>413</v>
       </c>
     </row>
@@ -26858,7 +28196,7 @@
       <c r="C85" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="15">
         <v>363</v>
       </c>
     </row>
@@ -26868,7 +28206,7 @@
         <v>699</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="16">
+      <c r="D86" s="15">
         <v>363</v>
       </c>
     </row>
@@ -26880,7 +28218,7 @@
       <c r="C87" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="15">
         <v>544</v>
       </c>
     </row>
@@ -26890,7 +28228,7 @@
         <v>700</v>
       </c>
       <c r="C88" s="9"/>
-      <c r="D88" s="16">
+      <c r="D88" s="15">
         <v>544</v>
       </c>
     </row>
@@ -26902,7 +28240,7 @@
       <c r="C89" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="15">
         <v>323</v>
       </c>
     </row>
@@ -26912,7 +28250,7 @@
         <v>701</v>
       </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="16">
+      <c r="D90" s="15">
         <v>323</v>
       </c>
     </row>
@@ -26924,7 +28262,7 @@
       <c r="C91" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="15">
         <v>597</v>
       </c>
     </row>
@@ -26934,7 +28272,7 @@
         <v>702</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="16">
+      <c r="D92" s="15">
         <v>597</v>
       </c>
     </row>
@@ -26946,7 +28284,7 @@
       <c r="C93" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="15">
         <v>496</v>
       </c>
     </row>
@@ -26956,7 +28294,7 @@
         <v>703</v>
       </c>
       <c r="C94" s="9"/>
-      <c r="D94" s="16">
+      <c r="D94" s="15">
         <v>496</v>
       </c>
     </row>
@@ -26968,7 +28306,7 @@
       <c r="C95" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="15">
         <v>659</v>
       </c>
     </row>
@@ -26978,7 +28316,7 @@
         <v>704</v>
       </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="16">
+      <c r="D96" s="15">
         <v>659</v>
       </c>
     </row>
@@ -26990,7 +28328,7 @@
       <c r="C97" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="15">
         <v>641</v>
       </c>
     </row>
@@ -27000,7 +28338,7 @@
         <v>705</v>
       </c>
       <c r="C98" s="9"/>
-      <c r="D98" s="16">
+      <c r="D98" s="15">
         <v>641</v>
       </c>
     </row>
@@ -27012,7 +28350,7 @@
       <c r="C99" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="15">
         <v>617</v>
       </c>
     </row>
@@ -27022,7 +28360,7 @@
         <v>706</v>
       </c>
       <c r="C100" s="9"/>
-      <c r="D100" s="16">
+      <c r="D100" s="15">
         <v>617</v>
       </c>
     </row>
@@ -27034,7 +28372,7 @@
       <c r="C101" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="15">
         <v>582</v>
       </c>
     </row>
@@ -27044,7 +28382,7 @@
         <v>707</v>
       </c>
       <c r="C102" s="9"/>
-      <c r="D102" s="16">
+      <c r="D102" s="15">
         <v>582</v>
       </c>
     </row>
@@ -27056,7 +28394,7 @@
       <c r="C103" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="15">
         <v>235</v>
       </c>
     </row>
@@ -27066,7 +28404,7 @@
         <v>708</v>
       </c>
       <c r="C104" s="9"/>
-      <c r="D104" s="16">
+      <c r="D104" s="15">
         <v>235</v>
       </c>
     </row>
@@ -27078,7 +28416,7 @@
       <c r="C105" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="15">
         <v>498</v>
       </c>
     </row>
@@ -27088,7 +28426,7 @@
         <v>709</v>
       </c>
       <c r="C106" s="9"/>
-      <c r="D106" s="16">
+      <c r="D106" s="15">
         <v>498</v>
       </c>
     </row>
@@ -27100,7 +28438,7 @@
       <c r="C107" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="15">
         <v>534</v>
       </c>
     </row>
@@ -27110,7 +28448,7 @@
         <v>710</v>
       </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="16">
+      <c r="D108" s="15">
         <v>534</v>
       </c>
     </row>
@@ -27122,7 +28460,7 @@
       <c r="C109" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="15">
         <v>562</v>
       </c>
     </row>
@@ -27132,7 +28470,7 @@
         <v>711</v>
       </c>
       <c r="C110" s="9"/>
-      <c r="D110" s="16">
+      <c r="D110" s="15">
         <v>562</v>
       </c>
     </row>
@@ -27144,7 +28482,7 @@
       <c r="C111" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="15">
         <v>598</v>
       </c>
     </row>
@@ -27154,7 +28492,7 @@
         <v>712</v>
       </c>
       <c r="C112" s="9"/>
-      <c r="D112" s="16">
+      <c r="D112" s="15">
         <v>598</v>
       </c>
     </row>
@@ -27166,7 +28504,7 @@
       <c r="C113" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="15">
         <v>277</v>
       </c>
     </row>
@@ -27176,7 +28514,7 @@
         <v>713</v>
       </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="16">
+      <c r="D114" s="15">
         <v>277</v>
       </c>
     </row>
@@ -27188,7 +28526,7 @@
       <c r="C115" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="15">
         <v>372</v>
       </c>
     </row>
@@ -27198,7 +28536,7 @@
         <v>714</v>
       </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="16">
+      <c r="D116" s="15">
         <v>372</v>
       </c>
     </row>
@@ -27210,7 +28548,7 @@
       <c r="C117" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D117" s="16">
+      <c r="D117" s="15">
         <v>1199</v>
       </c>
     </row>
@@ -27220,7 +28558,7 @@
         <v>715</v>
       </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="16">
+      <c r="D118" s="15">
         <v>1199</v>
       </c>
     </row>
@@ -27232,7 +28570,7 @@
       <c r="C119" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D119" s="16">
+      <c r="D119" s="15">
         <v>1031</v>
       </c>
     </row>
@@ -27242,7 +28580,7 @@
         <v>716</v>
       </c>
       <c r="C120" s="9"/>
-      <c r="D120" s="16">
+      <c r="D120" s="15">
         <v>1031</v>
       </c>
     </row>
@@ -27254,7 +28592,7 @@
       <c r="C121" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="15">
         <v>375</v>
       </c>
     </row>
@@ -27264,7 +28602,7 @@
         <v>717</v>
       </c>
       <c r="C122" s="9"/>
-      <c r="D122" s="16">
+      <c r="D122" s="15">
         <v>375</v>
       </c>
     </row>
@@ -27276,7 +28614,7 @@
       <c r="C123" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="15">
         <v>899</v>
       </c>
     </row>
@@ -27286,7 +28624,7 @@
         <v>718</v>
       </c>
       <c r="C124" s="9"/>
-      <c r="D124" s="16">
+      <c r="D124" s="15">
         <v>899</v>
       </c>
     </row>
@@ -27298,7 +28636,7 @@
       <c r="C125" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="15">
         <v>1312</v>
       </c>
     </row>
@@ -27308,7 +28646,7 @@
         <v>719</v>
       </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="16">
+      <c r="D126" s="15">
         <v>1312</v>
       </c>
     </row>
@@ -27320,7 +28658,7 @@
       <c r="C127" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="15">
         <v>231</v>
       </c>
     </row>
@@ -27330,7 +28668,7 @@
         <v>720</v>
       </c>
       <c r="C128" s="9"/>
-      <c r="D128" s="16">
+      <c r="D128" s="15">
         <v>231</v>
       </c>
     </row>
@@ -27342,7 +28680,7 @@
       <c r="C129" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D129" s="16">
+      <c r="D129" s="15">
         <v>212</v>
       </c>
     </row>
@@ -27352,7 +28690,7 @@
         <v>721</v>
       </c>
       <c r="C130" s="9"/>
-      <c r="D130" s="16">
+      <c r="D130" s="15">
         <v>212</v>
       </c>
     </row>
@@ -27364,7 +28702,7 @@
       <c r="C131" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="16">
+      <c r="D131" s="15">
         <v>859</v>
       </c>
     </row>
@@ -27374,7 +28712,7 @@
         <v>722</v>
       </c>
       <c r="C132" s="9"/>
-      <c r="D132" s="16">
+      <c r="D132" s="15">
         <v>859</v>
       </c>
     </row>
@@ -27386,7 +28724,7 @@
       <c r="C133" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D133" s="16">
+      <c r="D133" s="15">
         <v>406</v>
       </c>
     </row>
@@ -27396,7 +28734,7 @@
         <v>723</v>
       </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="16">
+      <c r="D134" s="15">
         <v>406</v>
       </c>
     </row>
@@ -27408,7 +28746,7 @@
       <c r="C135" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D135" s="15">
         <v>112</v>
       </c>
     </row>
@@ -27418,7 +28756,7 @@
         <v>724</v>
       </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="16">
+      <c r="D136" s="15">
         <v>112</v>
       </c>
     </row>
@@ -27430,7 +28768,7 @@
       <c r="C137" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="16">
+      <c r="D137" s="15">
         <v>708</v>
       </c>
     </row>
@@ -27440,7 +28778,7 @@
         <v>725</v>
       </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="16">
+      <c r="D138" s="15">
         <v>708</v>
       </c>
     </row>
@@ -27452,7 +28790,7 @@
       <c r="C139" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D139" s="16">
+      <c r="D139" s="15">
         <v>524</v>
       </c>
     </row>
@@ -27462,7 +28800,7 @@
         <v>726</v>
       </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="16">
+      <c r="D140" s="15">
         <v>524</v>
       </c>
     </row>
@@ -27474,7 +28812,7 @@
       <c r="C141" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D141" s="15">
         <v>194</v>
       </c>
     </row>
@@ -27484,7 +28822,7 @@
         <v>727</v>
       </c>
       <c r="C142" s="9"/>
-      <c r="D142" s="16">
+      <c r="D142" s="15">
         <v>194</v>
       </c>
     </row>
@@ -27496,7 +28834,7 @@
       <c r="C143" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D143" s="15">
         <v>436</v>
       </c>
     </row>
@@ -27506,7 +28844,7 @@
         <v>728</v>
       </c>
       <c r="C144" s="9"/>
-      <c r="D144" s="16">
+      <c r="D144" s="15">
         <v>436</v>
       </c>
     </row>
@@ -27518,7 +28856,7 @@
       <c r="C145" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D145" s="15">
         <v>285</v>
       </c>
     </row>
@@ -27528,7 +28866,7 @@
         <v>729</v>
       </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="16">
+      <c r="D146" s="15">
         <v>285</v>
       </c>
     </row>
@@ -27540,7 +28878,7 @@
       <c r="C147" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D147" s="16">
+      <c r="D147" s="15">
         <v>805</v>
       </c>
     </row>
@@ -27550,7 +28888,7 @@
         <v>730</v>
       </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="16">
+      <c r="D148" s="15">
         <v>805</v>
       </c>
     </row>
@@ -27562,7 +28900,7 @@
       <c r="C149" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="15">
         <v>1983</v>
       </c>
     </row>
@@ -27572,7 +28910,7 @@
         <v>731</v>
       </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="16">
+      <c r="D150" s="15">
         <v>1983</v>
       </c>
     </row>
@@ -27584,7 +28922,7 @@
       <c r="C151" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D151" s="16">
+      <c r="D151" s="15">
         <v>658</v>
       </c>
     </row>
@@ -27594,7 +28932,7 @@
         <v>732</v>
       </c>
       <c r="C152" s="9"/>
-      <c r="D152" s="16">
+      <c r="D152" s="15">
         <v>658</v>
       </c>
     </row>
@@ -27606,7 +28944,7 @@
       <c r="C153" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D153" s="16">
+      <c r="D153" s="15">
         <v>46</v>
       </c>
     </row>
@@ -27616,7 +28954,7 @@
         <v>733</v>
       </c>
       <c r="C154" s="9"/>
-      <c r="D154" s="16">
+      <c r="D154" s="15">
         <v>46</v>
       </c>
     </row>
@@ -27628,7 +28966,7 @@
       <c r="C155" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D155" s="16">
+      <c r="D155" s="15">
         <v>269</v>
       </c>
     </row>
@@ -27638,7 +28976,7 @@
         <v>734</v>
       </c>
       <c r="C156" s="9"/>
-      <c r="D156" s="16">
+      <c r="D156" s="15">
         <v>269</v>
       </c>
     </row>
@@ -27650,7 +28988,7 @@
       <c r="C157" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D157" s="16">
+      <c r="D157" s="15">
         <v>364</v>
       </c>
     </row>
@@ -27660,7 +28998,7 @@
         <v>735</v>
       </c>
       <c r="C158" s="9"/>
-      <c r="D158" s="16">
+      <c r="D158" s="15">
         <v>364</v>
       </c>
     </row>
@@ -27672,7 +29010,7 @@
       <c r="C159" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="15">
         <v>123</v>
       </c>
     </row>
@@ -27682,7 +29020,7 @@
         <v>736</v>
       </c>
       <c r="C160" s="9"/>
-      <c r="D160" s="16">
+      <c r="D160" s="15">
         <v>123</v>
       </c>
     </row>
@@ -27694,7 +29032,7 @@
       <c r="C161" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D161" s="16">
+      <c r="D161" s="15">
         <v>385</v>
       </c>
     </row>
@@ -27704,7 +29042,7 @@
         <v>737</v>
       </c>
       <c r="C162" s="9"/>
-      <c r="D162" s="16">
+      <c r="D162" s="15">
         <v>385</v>
       </c>
     </row>
@@ -27716,7 +29054,7 @@
       <c r="C163" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D163" s="16">
+      <c r="D163" s="15">
         <v>424</v>
       </c>
     </row>
@@ -27726,7 +29064,7 @@
         <v>738</v>
       </c>
       <c r="C164" s="9"/>
-      <c r="D164" s="16">
+      <c r="D164" s="15">
         <v>424</v>
       </c>
     </row>
@@ -27738,7 +29076,7 @@
       <c r="C165" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D165" s="16">
+      <c r="D165" s="15">
         <v>356</v>
       </c>
     </row>
@@ -27748,7 +29086,7 @@
         <v>739</v>
       </c>
       <c r="C166" s="9"/>
-      <c r="D166" s="16">
+      <c r="D166" s="15">
         <v>356</v>
       </c>
     </row>
@@ -27760,7 +29098,7 @@
       <c r="C167" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D167" s="16">
+      <c r="D167" s="15">
         <v>433</v>
       </c>
     </row>
@@ -27770,7 +29108,7 @@
         <v>740</v>
       </c>
       <c r="C168" s="9"/>
-      <c r="D168" s="16">
+      <c r="D168" s="15">
         <v>433</v>
       </c>
     </row>
@@ -27782,7 +29120,7 @@
       <c r="C169" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D169" s="16">
+      <c r="D169" s="15">
         <v>469</v>
       </c>
     </row>
@@ -27792,7 +29130,7 @@
         <v>741</v>
       </c>
       <c r="C170" s="9"/>
-      <c r="D170" s="16">
+      <c r="D170" s="15">
         <v>469</v>
       </c>
     </row>
@@ -27804,7 +29142,7 @@
       <c r="C171" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D171" s="16">
+      <c r="D171" s="15">
         <v>152</v>
       </c>
     </row>
@@ -27814,7 +29152,7 @@
         <v>742</v>
       </c>
       <c r="C172" s="9"/>
-      <c r="D172" s="16">
+      <c r="D172" s="15">
         <v>152</v>
       </c>
     </row>
@@ -27826,7 +29164,7 @@
       <c r="C173" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D173" s="16">
+      <c r="D173" s="15">
         <v>121</v>
       </c>
     </row>
@@ -27836,7 +29174,7 @@
         <v>743</v>
       </c>
       <c r="C174" s="9"/>
-      <c r="D174" s="16">
+      <c r="D174" s="15">
         <v>121</v>
       </c>
     </row>
@@ -27848,7 +29186,7 @@
       <c r="C175" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D175" s="16">
+      <c r="D175" s="15">
         <v>585</v>
       </c>
     </row>
@@ -27858,7 +29196,7 @@
         <v>744</v>
       </c>
       <c r="C176" s="9"/>
-      <c r="D176" s="16">
+      <c r="D176" s="15">
         <v>585</v>
       </c>
     </row>
@@ -27870,7 +29208,7 @@
       <c r="C177" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D177" s="16">
+      <c r="D177" s="15">
         <v>470</v>
       </c>
     </row>
@@ -27880,7 +29218,7 @@
         <v>745</v>
       </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="16">
+      <c r="D178" s="15">
         <v>470</v>
       </c>
     </row>
@@ -27892,7 +29230,7 @@
       <c r="C179" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D179" s="16">
+      <c r="D179" s="15">
         <v>668</v>
       </c>
     </row>
@@ -27902,7 +29240,7 @@
         <v>746</v>
       </c>
       <c r="C180" s="9"/>
-      <c r="D180" s="16">
+      <c r="D180" s="15">
         <v>668</v>
       </c>
     </row>
@@ -27914,7 +29252,7 @@
       <c r="C181" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D181" s="16">
+      <c r="D181" s="15">
         <v>852</v>
       </c>
     </row>
@@ -27924,7 +29262,7 @@
         <v>747</v>
       </c>
       <c r="C182" s="9"/>
-      <c r="D182" s="16">
+      <c r="D182" s="15">
         <v>852</v>
       </c>
     </row>
@@ -27936,7 +29274,7 @@
       <c r="C183" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D183" s="16">
+      <c r="D183" s="15">
         <v>446</v>
       </c>
     </row>
@@ -27946,7 +29284,7 @@
         <v>748</v>
       </c>
       <c r="C184" s="9"/>
-      <c r="D184" s="16">
+      <c r="D184" s="15">
         <v>446</v>
       </c>
     </row>
@@ -27958,7 +29296,7 @@
       <c r="C185" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D185" s="16">
+      <c r="D185" s="15">
         <v>285</v>
       </c>
     </row>
@@ -27968,7 +29306,7 @@
         <v>749</v>
       </c>
       <c r="C186" s="9"/>
-      <c r="D186" s="16">
+      <c r="D186" s="15">
         <v>285</v>
       </c>
     </row>
@@ -27980,7 +29318,7 @@
       <c r="C187" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D187" s="16">
+      <c r="D187" s="15">
         <v>586</v>
       </c>
     </row>
@@ -27990,7 +29328,7 @@
         <v>750</v>
       </c>
       <c r="C188" s="9"/>
-      <c r="D188" s="16">
+      <c r="D188" s="15">
         <v>586</v>
       </c>
     </row>
@@ -28002,7 +29340,7 @@
       <c r="C189" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D189" s="16">
+      <c r="D189" s="15">
         <v>710</v>
       </c>
     </row>
@@ -28012,7 +29350,7 @@
         <v>751</v>
       </c>
       <c r="C190" s="9"/>
-      <c r="D190" s="16">
+      <c r="D190" s="15">
         <v>710</v>
       </c>
     </row>
@@ -28024,7 +29362,7 @@
       <c r="C191" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D191" s="16">
+      <c r="D191" s="15">
         <v>423</v>
       </c>
     </row>
@@ -28034,7 +29372,7 @@
         <v>752</v>
       </c>
       <c r="C192" s="9"/>
-      <c r="D192" s="16">
+      <c r="D192" s="15">
         <v>423</v>
       </c>
     </row>
@@ -28046,7 +29384,7 @@
       <c r="C193" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D193" s="16">
+      <c r="D193" s="15">
         <v>1251</v>
       </c>
     </row>
@@ -28056,7 +29394,7 @@
         <v>753</v>
       </c>
       <c r="C194" s="9"/>
-      <c r="D194" s="16">
+      <c r="D194" s="15">
         <v>1251</v>
       </c>
     </row>
@@ -28068,7 +29406,7 @@
       <c r="C195" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D195" s="16">
+      <c r="D195" s="15">
         <v>740</v>
       </c>
     </row>
@@ -28078,7 +29416,7 @@
         <v>754</v>
       </c>
       <c r="C196" s="9"/>
-      <c r="D196" s="16">
+      <c r="D196" s="15">
         <v>740</v>
       </c>
     </row>
@@ -28090,7 +29428,7 @@
       <c r="C197" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D197" s="16">
+      <c r="D197" s="15">
         <v>227</v>
       </c>
     </row>
@@ -28100,7 +29438,7 @@
         <v>755</v>
       </c>
       <c r="C198" s="9"/>
-      <c r="D198" s="16">
+      <c r="D198" s="15">
         <v>227</v>
       </c>
     </row>
@@ -28112,7 +29450,7 @@
       <c r="C199" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D199" s="16">
+      <c r="D199" s="15">
         <v>2087</v>
       </c>
     </row>
@@ -28122,7 +29460,7 @@
         <v>756</v>
       </c>
       <c r="C200" s="9"/>
-      <c r="D200" s="16">
+      <c r="D200" s="15">
         <v>2087</v>
       </c>
     </row>
@@ -28134,7 +29472,7 @@
       <c r="C201" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D201" s="16">
+      <c r="D201" s="15">
         <v>748</v>
       </c>
     </row>
@@ -28144,7 +29482,7 @@
         <v>757</v>
       </c>
       <c r="C202" s="9"/>
-      <c r="D202" s="16">
+      <c r="D202" s="15">
         <v>748</v>
       </c>
     </row>
@@ -28156,7 +29494,7 @@
       <c r="C203" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D203" s="16">
+      <c r="D203" s="15">
         <v>681</v>
       </c>
     </row>
@@ -28166,7 +29504,7 @@
         <v>758</v>
       </c>
       <c r="C204" s="9"/>
-      <c r="D204" s="16">
+      <c r="D204" s="15">
         <v>681</v>
       </c>
     </row>
@@ -28178,7 +29516,7 @@
       <c r="C205" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D205" s="16">
+      <c r="D205" s="15">
         <v>259</v>
       </c>
     </row>
@@ -28188,7 +29526,7 @@
         <v>759</v>
       </c>
       <c r="C206" s="9"/>
-      <c r="D206" s="16">
+      <c r="D206" s="15">
         <v>259</v>
       </c>
     </row>
@@ -28200,7 +29538,7 @@
       <c r="C207" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D207" s="16">
+      <c r="D207" s="15">
         <v>156</v>
       </c>
     </row>
@@ -28210,7 +29548,7 @@
         <v>760</v>
       </c>
       <c r="C208" s="9"/>
-      <c r="D208" s="16">
+      <c r="D208" s="15">
         <v>156</v>
       </c>
     </row>
@@ -28222,7 +29560,7 @@
       <c r="C209" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D209" s="16">
+      <c r="D209" s="15">
         <v>265</v>
       </c>
     </row>
@@ -28232,7 +29570,7 @@
         <v>761</v>
       </c>
       <c r="C210" s="9"/>
-      <c r="D210" s="16">
+      <c r="D210" s="15">
         <v>265</v>
       </c>
     </row>
@@ -28244,7 +29582,7 @@
       <c r="C211" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D211" s="16">
+      <c r="D211" s="15">
         <v>712</v>
       </c>
     </row>
@@ -28254,7 +29592,7 @@
         <v>762</v>
       </c>
       <c r="C212" s="9"/>
-      <c r="D212" s="16">
+      <c r="D212" s="15">
         <v>712</v>
       </c>
     </row>
@@ -28266,7 +29604,7 @@
       <c r="C213" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D213" s="16">
+      <c r="D213" s="15">
         <v>42</v>
       </c>
     </row>
@@ -28276,7 +29614,7 @@
         <v>763</v>
       </c>
       <c r="C214" s="9"/>
-      <c r="D214" s="16">
+      <c r="D214" s="15">
         <v>42</v>
       </c>
     </row>
@@ -28288,7 +29626,7 @@
       <c r="C215" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D215" s="16">
+      <c r="D215" s="15">
         <v>271</v>
       </c>
     </row>
@@ -28298,7 +29636,7 @@
         <v>764</v>
       </c>
       <c r="C216" s="9"/>
-      <c r="D216" s="16">
+      <c r="D216" s="15">
         <v>271</v>
       </c>
     </row>
@@ -28310,7 +29648,7 @@
       <c r="C217" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D217" s="16">
+      <c r="D217" s="15">
         <v>154</v>
       </c>
     </row>
@@ -28320,7 +29658,7 @@
         <v>765</v>
       </c>
       <c r="C218" s="9"/>
-      <c r="D218" s="16">
+      <c r="D218" s="15">
         <v>154</v>
       </c>
     </row>
@@ -28332,7 +29670,7 @@
       <c r="C219" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D219" s="16">
+      <c r="D219" s="15">
         <v>500</v>
       </c>
     </row>
@@ -28342,7 +29680,7 @@
         <v>766</v>
       </c>
       <c r="C220" s="9"/>
-      <c r="D220" s="16">
+      <c r="D220" s="15">
         <v>500</v>
       </c>
     </row>
@@ -28354,7 +29692,7 @@
       <c r="C221" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D221" s="16">
+      <c r="D221" s="15">
         <v>328</v>
       </c>
     </row>
@@ -28364,7 +29702,7 @@
         <v>767</v>
       </c>
       <c r="C222" s="9"/>
-      <c r="D222" s="16">
+      <c r="D222" s="15">
         <v>328</v>
       </c>
     </row>
@@ -28376,7 +29714,7 @@
       <c r="C223" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D223" s="16">
+      <c r="D223" s="15">
         <v>578</v>
       </c>
     </row>
@@ -28386,7 +29724,7 @@
         <v>768</v>
       </c>
       <c r="C224" s="9"/>
-      <c r="D224" s="16">
+      <c r="D224" s="15">
         <v>578</v>
       </c>
     </row>
@@ -28398,7 +29736,7 @@
       <c r="C225" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D225" s="16">
+      <c r="D225" s="15">
         <v>487</v>
       </c>
     </row>
@@ -28408,7 +29746,7 @@
         <v>769</v>
       </c>
       <c r="C226" s="9"/>
-      <c r="D226" s="16">
+      <c r="D226" s="15">
         <v>487</v>
       </c>
     </row>
@@ -28420,7 +29758,7 @@
       <c r="C227" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D227" s="16">
+      <c r="D227" s="15">
         <v>269</v>
       </c>
     </row>
@@ -28430,7 +29768,7 @@
         <v>770</v>
       </c>
       <c r="C228" s="9"/>
-      <c r="D228" s="16">
+      <c r="D228" s="15">
         <v>269</v>
       </c>
     </row>
@@ -28442,7 +29780,7 @@
       <c r="C229" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D229" s="16">
+      <c r="D229" s="15">
         <v>572</v>
       </c>
     </row>
@@ -28452,7 +29790,7 @@
         <v>771</v>
       </c>
       <c r="C230" s="9"/>
-      <c r="D230" s="16">
+      <c r="D230" s="15">
         <v>572</v>
       </c>
     </row>
@@ -28464,7 +29802,7 @@
       <c r="C231" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D231" s="16">
+      <c r="D231" s="15">
         <v>310</v>
       </c>
     </row>
@@ -28474,7 +29812,7 @@
         <v>772</v>
       </c>
       <c r="C232" s="9"/>
-      <c r="D232" s="16">
+      <c r="D232" s="15">
         <v>310</v>
       </c>
     </row>
@@ -28486,7 +29824,7 @@
       <c r="C233" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D233" s="16">
+      <c r="D233" s="15">
         <v>563</v>
       </c>
     </row>
@@ -28496,7 +29834,7 @@
         <v>773</v>
       </c>
       <c r="C234" s="9"/>
-      <c r="D234" s="16">
+      <c r="D234" s="15">
         <v>563</v>
       </c>
     </row>
@@ -28508,7 +29846,7 @@
       <c r="C235" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D235" s="16">
+      <c r="D235" s="15">
         <v>304</v>
       </c>
     </row>
@@ -28518,7 +29856,7 @@
         <v>774</v>
       </c>
       <c r="C236" s="9"/>
-      <c r="D236" s="16">
+      <c r="D236" s="15">
         <v>304</v>
       </c>
     </row>
@@ -28530,7 +29868,7 @@
       <c r="C237" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D237" s="16">
+      <c r="D237" s="15">
         <v>632</v>
       </c>
     </row>
@@ -28540,7 +29878,7 @@
         <v>775</v>
       </c>
       <c r="C238" s="9"/>
-      <c r="D238" s="16">
+      <c r="D238" s="15">
         <v>632</v>
       </c>
     </row>
@@ -28552,7 +29890,7 @@
       <c r="C239" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D239" s="16">
+      <c r="D239" s="15">
         <v>260</v>
       </c>
     </row>
@@ -28562,7 +29900,7 @@
         <v>776</v>
       </c>
       <c r="C240" s="9"/>
-      <c r="D240" s="16">
+      <c r="D240" s="15">
         <v>260</v>
       </c>
     </row>
@@ -28574,7 +29912,7 @@
       <c r="C241" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D241" s="16">
+      <c r="D241" s="15">
         <v>393</v>
       </c>
     </row>
@@ -28584,7 +29922,7 @@
         <v>777</v>
       </c>
       <c r="C242" s="9"/>
-      <c r="D242" s="16">
+      <c r="D242" s="15">
         <v>393</v>
       </c>
     </row>
@@ -28596,7 +29934,7 @@
       <c r="C243" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="D243" s="16">
+      <c r="D243" s="15">
         <v>388</v>
       </c>
     </row>
@@ -28606,7 +29944,7 @@
         <v>778</v>
       </c>
       <c r="C244" s="9"/>
-      <c r="D244" s="16">
+      <c r="D244" s="15">
         <v>388</v>
       </c>
     </row>
@@ -28618,7 +29956,7 @@
       <c r="C245" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D245" s="16">
+      <c r="D245" s="15">
         <v>611</v>
       </c>
     </row>
@@ -28628,7 +29966,7 @@
         <v>779</v>
       </c>
       <c r="C246" s="9"/>
-      <c r="D246" s="16">
+      <c r="D246" s="15">
         <v>611</v>
       </c>
     </row>
@@ -28640,7 +29978,7 @@
       <c r="C247" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D247" s="16">
+      <c r="D247" s="15">
         <v>265</v>
       </c>
     </row>
@@ -28650,7 +29988,7 @@
         <v>780</v>
       </c>
       <c r="C248" s="9"/>
-      <c r="D248" s="16">
+      <c r="D248" s="15">
         <v>265</v>
       </c>
     </row>
@@ -28662,7 +30000,7 @@
       <c r="C249" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D249" s="16">
+      <c r="D249" s="15">
         <v>44</v>
       </c>
     </row>
@@ -28672,7 +30010,7 @@
         <v>781</v>
       </c>
       <c r="C250" s="9"/>
-      <c r="D250" s="16">
+      <c r="D250" s="15">
         <v>44</v>
       </c>
     </row>
@@ -28684,7 +30022,7 @@
       <c r="C251" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D251" s="16">
+      <c r="D251" s="15">
         <v>473</v>
       </c>
     </row>
@@ -28694,7 +30032,7 @@
         <v>782</v>
       </c>
       <c r="C252" s="9"/>
-      <c r="D252" s="16">
+      <c r="D252" s="15">
         <v>473</v>
       </c>
     </row>
@@ -28706,7 +30044,7 @@
       <c r="C253" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D253" s="16">
+      <c r="D253" s="15">
         <v>550</v>
       </c>
     </row>
@@ -28716,7 +30054,7 @@
         <v>783</v>
       </c>
       <c r="C254" s="9"/>
-      <c r="D254" s="16">
+      <c r="D254" s="15">
         <v>550</v>
       </c>
     </row>
@@ -28728,7 +30066,7 @@
       <c r="C255" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D255" s="16">
+      <c r="D255" s="15">
         <v>446</v>
       </c>
     </row>
@@ -28738,7 +30076,7 @@
         <v>784</v>
       </c>
       <c r="C256" s="9"/>
-      <c r="D256" s="16">
+      <c r="D256" s="15">
         <v>446</v>
       </c>
     </row>
@@ -28750,7 +30088,7 @@
       <c r="C257" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D257" s="16">
+      <c r="D257" s="15">
         <v>286</v>
       </c>
     </row>
@@ -28760,7 +30098,7 @@
         <v>785</v>
       </c>
       <c r="C258" s="9"/>
-      <c r="D258" s="16">
+      <c r="D258" s="15">
         <v>286</v>
       </c>
     </row>
@@ -28772,7 +30110,7 @@
       <c r="C259" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D259" s="16">
+      <c r="D259" s="15">
         <v>165</v>
       </c>
     </row>
@@ -28782,7 +30120,7 @@
         <v>786</v>
       </c>
       <c r="C260" s="9"/>
-      <c r="D260" s="16">
+      <c r="D260" s="15">
         <v>165</v>
       </c>
     </row>
@@ -28794,7 +30132,7 @@
       <c r="C261" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D261" s="16">
+      <c r="D261" s="15">
         <v>427</v>
       </c>
     </row>
@@ -28804,7 +30142,7 @@
         <v>787</v>
       </c>
       <c r="C262" s="9"/>
-      <c r="D262" s="16">
+      <c r="D262" s="15">
         <v>427</v>
       </c>
     </row>
@@ -28816,7 +30154,7 @@
       <c r="C263" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D263" s="16">
+      <c r="D263" s="15">
         <v>294</v>
       </c>
     </row>
@@ -28826,7 +30164,7 @@
         <v>788</v>
       </c>
       <c r="C264" s="9"/>
-      <c r="D264" s="16">
+      <c r="D264" s="15">
         <v>294</v>
       </c>
     </row>
@@ -28838,7 +30176,7 @@
       <c r="C265" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="16">
+      <c r="D265" s="15">
         <v>666</v>
       </c>
     </row>
@@ -28848,7 +30186,7 @@
         <v>789</v>
       </c>
       <c r="C266" s="9"/>
-      <c r="D266" s="16">
+      <c r="D266" s="15">
         <v>666</v>
       </c>
     </row>
@@ -28860,7 +30198,7 @@
       <c r="C267" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D267" s="16">
+      <c r="D267" s="15">
         <v>214</v>
       </c>
     </row>
@@ -28870,7 +30208,7 @@
         <v>790</v>
       </c>
       <c r="C268" s="9"/>
-      <c r="D268" s="16">
+      <c r="D268" s="15">
         <v>214</v>
       </c>
     </row>
@@ -28882,7 +30220,7 @@
       <c r="C269" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D269" s="16">
+      <c r="D269" s="15">
         <v>370</v>
       </c>
     </row>
@@ -28892,7 +30230,7 @@
         <v>791</v>
       </c>
       <c r="C270" s="9"/>
-      <c r="D270" s="16">
+      <c r="D270" s="15">
         <v>370</v>
       </c>
     </row>
@@ -28904,7 +30242,7 @@
       <c r="C271" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D271" s="16">
+      <c r="D271" s="15">
         <v>515</v>
       </c>
     </row>
@@ -28914,7 +30252,7 @@
         <v>792</v>
       </c>
       <c r="C272" s="9"/>
-      <c r="D272" s="16">
+      <c r="D272" s="15">
         <v>515</v>
       </c>
     </row>
@@ -28926,7 +30264,7 @@
       <c r="C273" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D273" s="16">
+      <c r="D273" s="15">
         <v>501</v>
       </c>
     </row>
@@ -28936,7 +30274,7 @@
         <v>793</v>
       </c>
       <c r="C274" s="9"/>
-      <c r="D274" s="16">
+      <c r="D274" s="15">
         <v>501</v>
       </c>
     </row>
@@ -28948,7 +30286,7 @@
       <c r="C275" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D275" s="16">
+      <c r="D275" s="15">
         <v>907</v>
       </c>
     </row>
@@ -28958,7 +30296,7 @@
         <v>794</v>
       </c>
       <c r="C276" s="9"/>
-      <c r="D276" s="16">
+      <c r="D276" s="15">
         <v>907</v>
       </c>
     </row>
@@ -28970,7 +30308,7 @@
       <c r="C277" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D277" s="16">
+      <c r="D277" s="15">
         <v>454</v>
       </c>
     </row>
@@ -28980,7 +30318,7 @@
         <v>795</v>
       </c>
       <c r="C278" s="9"/>
-      <c r="D278" s="16">
+      <c r="D278" s="15">
         <v>454</v>
       </c>
     </row>
@@ -28992,7 +30330,7 @@
       <c r="C279" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D279" s="16">
+      <c r="D279" s="15">
         <v>342</v>
       </c>
     </row>
@@ -29002,7 +30340,7 @@
         <v>796</v>
       </c>
       <c r="C280" s="9"/>
-      <c r="D280" s="16">
+      <c r="D280" s="15">
         <v>342</v>
       </c>
     </row>
@@ -29014,7 +30352,7 @@
       <c r="C281" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D281" s="16">
+      <c r="D281" s="15">
         <v>374</v>
       </c>
     </row>
@@ -29024,7 +30362,7 @@
         <v>797</v>
       </c>
       <c r="C282" s="9"/>
-      <c r="D282" s="16">
+      <c r="D282" s="15">
         <v>374</v>
       </c>
     </row>
@@ -29036,7 +30374,7 @@
       <c r="C283" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D283" s="16">
+      <c r="D283" s="15">
         <v>95</v>
       </c>
     </row>
@@ -29046,7 +30384,7 @@
         <v>798</v>
       </c>
       <c r="C284" s="9"/>
-      <c r="D284" s="16">
+      <c r="D284" s="15">
         <v>95</v>
       </c>
     </row>
@@ -29058,7 +30396,7 @@
       <c r="C285" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D285" s="16">
+      <c r="D285" s="15">
         <v>66</v>
       </c>
     </row>
@@ -29068,7 +30406,7 @@
         <v>799</v>
       </c>
       <c r="C286" s="9"/>
-      <c r="D286" s="16">
+      <c r="D286" s="15">
         <v>66</v>
       </c>
     </row>
@@ -29080,7 +30418,7 @@
       <c r="C287" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D287" s="16">
+      <c r="D287" s="15">
         <v>48</v>
       </c>
     </row>
@@ -29090,7 +30428,7 @@
         <v>800</v>
       </c>
       <c r="C288" s="9"/>
-      <c r="D288" s="16">
+      <c r="D288" s="15">
         <v>48</v>
       </c>
     </row>
@@ -29102,7 +30440,7 @@
       <c r="C289" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D289" s="16">
+      <c r="D289" s="15">
         <v>643</v>
       </c>
     </row>
@@ -29112,7 +30450,7 @@
         <v>801</v>
       </c>
       <c r="C290" s="9"/>
-      <c r="D290" s="16">
+      <c r="D290" s="15">
         <v>643</v>
       </c>
     </row>
@@ -29124,7 +30462,7 @@
       <c r="C291" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D291" s="16">
+      <c r="D291" s="15">
         <v>882</v>
       </c>
     </row>
@@ -29134,7 +30472,7 @@
         <v>802</v>
       </c>
       <c r="C292" s="9"/>
-      <c r="D292" s="16">
+      <c r="D292" s="15">
         <v>882</v>
       </c>
     </row>
@@ -29146,7 +30484,7 @@
       <c r="C293" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D293" s="16">
+      <c r="D293" s="15">
         <v>333</v>
       </c>
     </row>
@@ -29156,7 +30494,7 @@
         <v>803</v>
       </c>
       <c r="C294" s="9"/>
-      <c r="D294" s="16">
+      <c r="D294" s="15">
         <v>333</v>
       </c>
     </row>
@@ -29168,7 +30506,7 @@
       <c r="C295" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D295" s="16">
+      <c r="D295" s="15">
         <v>21</v>
       </c>
     </row>
@@ -29178,7 +30516,7 @@
         <v>804</v>
       </c>
       <c r="C296" s="9"/>
-      <c r="D296" s="16">
+      <c r="D296" s="15">
         <v>21</v>
       </c>
     </row>
@@ -29190,7 +30528,7 @@
       <c r="C297" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D297" s="16">
+      <c r="D297" s="15">
         <v>483</v>
       </c>
     </row>
@@ -29200,7 +30538,7 @@
         <v>805</v>
       </c>
       <c r="C298" s="9"/>
-      <c r="D298" s="16">
+      <c r="D298" s="15">
         <v>483</v>
       </c>
     </row>
@@ -29212,7 +30550,7 @@
       <c r="C299" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D299" s="16">
+      <c r="D299" s="15">
         <v>694</v>
       </c>
     </row>
@@ -29222,7 +30560,7 @@
         <v>806</v>
       </c>
       <c r="C300" s="9"/>
-      <c r="D300" s="16">
+      <c r="D300" s="15">
         <v>694</v>
       </c>
     </row>
@@ -29234,7 +30572,7 @@
       <c r="C301" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D301" s="16">
+      <c r="D301" s="15">
         <v>387</v>
       </c>
     </row>
@@ -29244,7 +30582,7 @@
         <v>807</v>
       </c>
       <c r="C302" s="9"/>
-      <c r="D302" s="16">
+      <c r="D302" s="15">
         <v>387</v>
       </c>
     </row>
@@ -29256,7 +30594,7 @@
       <c r="C303" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D303" s="16">
+      <c r="D303" s="15">
         <v>677</v>
       </c>
     </row>
@@ -29266,7 +30604,7 @@
         <v>808</v>
       </c>
       <c r="C304" s="9"/>
-      <c r="D304" s="16">
+      <c r="D304" s="15">
         <v>677</v>
       </c>
     </row>
@@ -29278,7 +30616,7 @@
       <c r="C305" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D305" s="16">
+      <c r="D305" s="15">
         <v>1167</v>
       </c>
     </row>
@@ -29288,7 +30626,7 @@
         <v>809</v>
       </c>
       <c r="C306" s="9"/>
-      <c r="D306" s="16">
+      <c r="D306" s="15">
         <v>1167</v>
       </c>
     </row>
@@ -29300,7 +30638,7 @@
       <c r="C307" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D307" s="16">
+      <c r="D307" s="15">
         <v>529</v>
       </c>
     </row>
@@ -29310,7 +30648,7 @@
         <v>810</v>
       </c>
       <c r="C308" s="9"/>
-      <c r="D308" s="16">
+      <c r="D308" s="15">
         <v>529</v>
       </c>
     </row>
@@ -29322,7 +30660,7 @@
       <c r="C309" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D309" s="16">
+      <c r="D309" s="15">
         <v>243</v>
       </c>
     </row>
@@ -29332,7 +30670,7 @@
         <v>811</v>
       </c>
       <c r="C310" s="9"/>
-      <c r="D310" s="16">
+      <c r="D310" s="15">
         <v>243</v>
       </c>
     </row>
@@ -29344,7 +30682,7 @@
       <c r="C311" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D311" s="16">
+      <c r="D311" s="15">
         <v>16</v>
       </c>
     </row>
@@ -29354,7 +30692,7 @@
         <v>812</v>
       </c>
       <c r="C312" s="9"/>
-      <c r="D312" s="16">
+      <c r="D312" s="15">
         <v>16</v>
       </c>
     </row>
@@ -29366,7 +30704,7 @@
       <c r="C313" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D313" s="16">
+      <c r="D313" s="15">
         <v>233</v>
       </c>
     </row>
@@ -29376,7 +30714,7 @@
         <v>813</v>
       </c>
       <c r="C314" s="9"/>
-      <c r="D314" s="16">
+      <c r="D314" s="15">
         <v>233</v>
       </c>
     </row>
@@ -29388,7 +30726,7 @@
       <c r="C315" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D315" s="16">
+      <c r="D315" s="15">
         <v>479</v>
       </c>
     </row>
@@ -29398,7 +30736,7 @@
         <v>814</v>
       </c>
       <c r="C316" s="9"/>
-      <c r="D316" s="16">
+      <c r="D316" s="15">
         <v>479</v>
       </c>
     </row>
@@ -29410,7 +30748,7 @@
       <c r="C317" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D317" s="16">
+      <c r="D317" s="15">
         <v>478</v>
       </c>
     </row>
@@ -29420,7 +30758,7 @@
         <v>815</v>
       </c>
       <c r="C318" s="9"/>
-      <c r="D318" s="16">
+      <c r="D318" s="15">
         <v>478</v>
       </c>
     </row>
@@ -29432,7 +30770,7 @@
       <c r="C319" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D319" s="16">
+      <c r="D319" s="15">
         <v>379</v>
       </c>
     </row>
@@ -29442,7 +30780,7 @@
         <v>816</v>
       </c>
       <c r="C320" s="9"/>
-      <c r="D320" s="16">
+      <c r="D320" s="15">
         <v>379</v>
       </c>
     </row>
@@ -29454,7 +30792,7 @@
       <c r="C321" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D321" s="16">
+      <c r="D321" s="15">
         <v>519</v>
       </c>
     </row>
@@ -29464,7 +30802,7 @@
         <v>817</v>
       </c>
       <c r="C322" s="9"/>
-      <c r="D322" s="16">
+      <c r="D322" s="15">
         <v>519</v>
       </c>
     </row>
@@ -29476,7 +30814,7 @@
       <c r="C323" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D323" s="16">
+      <c r="D323" s="15">
         <v>910</v>
       </c>
     </row>
@@ -29486,7 +30824,7 @@
         <v>818</v>
       </c>
       <c r="C324" s="9"/>
-      <c r="D324" s="16">
+      <c r="D324" s="15">
         <v>910</v>
       </c>
     </row>
@@ -29498,7 +30836,7 @@
       <c r="C325" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D325" s="16">
+      <c r="D325" s="15">
         <v>789</v>
       </c>
     </row>
@@ -29508,7 +30846,7 @@
         <v>819</v>
       </c>
       <c r="C326" s="9"/>
-      <c r="D326" s="16">
+      <c r="D326" s="15">
         <v>789</v>
       </c>
     </row>
@@ -29518,7 +30856,7 @@
       </c>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
-      <c r="D327" s="16">
+      <c r="D327" s="15">
         <v>81480</v>
       </c>
     </row>
@@ -29528,7 +30866,7 @@
       </c>
       <c r="B328" s="14"/>
       <c r="C328" s="14"/>
-      <c r="D328" s="17">
+      <c r="D328" s="16">
         <v>81480</v>
       </c>
     </row>
@@ -29541,7 +30879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7BEAC4-28F3-4DCE-8651-3DDC11231427}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -29569,215 +30907,465 @@
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>14485</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="18">
-        <v>659</v>
+        <v>151</v>
+      </c>
+      <c r="B4" s="17">
+        <v>10489</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1230</v>
+        <v>115</v>
+      </c>
+      <c r="B5" s="17">
+        <v>6554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2091</v>
+        <v>207</v>
+      </c>
+      <c r="B6" s="17">
+        <v>4820</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="18">
-        <v>194</v>
+        <v>175</v>
+      </c>
+      <c r="B7" s="17">
+        <v>4336</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="18">
-        <v>2941</v>
+        <v>198</v>
+      </c>
+      <c r="B8" s="17">
+        <v>4081</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1287</v>
+        <v>146</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3667</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="18">
-        <v>832</v>
+        <v>364</v>
+      </c>
+      <c r="B10" s="17">
+        <v>3480</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="18">
-        <v>3667</v>
+        <v>162</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="17">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="17">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="17">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B27" s="17">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="17">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B29" s="16">
+        <v>81480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B314AE-89A0-43AA-96F4-916700308D75}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="19">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="19">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="19">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="19">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1287</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>1550</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="18">
-        <v>2529</v>
+        <v>317</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="18">
-        <v>4336</v>
+        <v>203</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2091</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="18">
-        <v>6554</v>
+        <v>324</v>
+      </c>
+      <c r="B15" s="19">
+        <v>2296</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="18">
-        <v>2296</v>
+        <v>188</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2442</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="18">
-        <v>3400</v>
+        <v>284</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2529</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B18" s="18">
-        <v>3480</v>
+        <v>260</v>
+      </c>
+      <c r="B18" s="19">
+        <v>2719</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="18">
-        <v>10489</v>
+        <v>70</v>
+      </c>
+      <c r="B19" s="19">
+        <v>2941</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="18">
-        <v>1038</v>
+        <v>162</v>
+      </c>
+      <c r="B20" s="19">
+        <v>3400</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="18">
-        <v>4820</v>
+        <v>364</v>
+      </c>
+      <c r="B21" s="19">
+        <v>3480</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="18">
-        <v>1956</v>
+        <v>146</v>
+      </c>
+      <c r="B22" s="19">
+        <v>3667</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="19">
         <v>4081</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" s="18">
-        <v>2719</v>
+        <v>175</v>
+      </c>
+      <c r="B24" s="19">
+        <v>4336</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="18">
-        <v>807</v>
+        <v>207</v>
+      </c>
+      <c r="B25" s="19">
+        <v>4820</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="18">
-        <v>2442</v>
+        <v>115</v>
+      </c>
+      <c r="B26" s="19">
+        <v>6554</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="18">
-        <v>1209</v>
+        <v>151</v>
+      </c>
+      <c r="B27" s="19">
+        <v>10489</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B28" s="18">
-        <v>388</v>
+        <v>39</v>
+      </c>
+      <c r="B28" s="19">
+        <v>14485</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="20">
         <v>81480</v>
       </c>
     </row>
